--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DAU_TU.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DAU_TU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48706D11-7D38-44D4-A9D3-F45DD2DEB3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4951239-9D8E-4046-B6B2-B84BF4807B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EFE3D26-A314-4A1A-939F-D896B04E0D09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EFE3D26-A314-4A1A-939F-D896B04E0D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
